--- a/hydrogen_comps/H10_chain/H10_0.84/H10_0.84_energies.xlsx
+++ b/hydrogen_comps/H10_chain/H10_0.84/H10_0.84_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.09925042940000001</v>
+        <v>-0.09925050000000001</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.54546226</v>
+        <v>-5.54546233</v>
       </c>
     </row>
   </sheetData>
